--- a/chek/bitlayer_results.xlsx
+++ b/chek/bitlayer_results.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Bridge in &amp; earn Meson Points</t>
+          <t>Bridge in via flash bridge</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -646,44 +646,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>584a72d4c9518f1ecd983421b6013f097afc36d37373685c771f65f1f31f15f3</t>
+          <t>e4a9ab2d2a5e925576f484cb54a13da000e6379f1cb6bd593080e54728f86d55</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0x8433729FB2ba158D6c9603AB63D600347d43f87B</t>
+          <t>0x3947d145c955727151D43E381e2521F73B5E4706</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16733</v>
+        <v>88650</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8710206330102e-05</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4888191062778e-05</v>
+        <v>2.433901305044e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>3.770494587834284</v>
+        <v>0.1442962727708386</v>
       </c>
       <c r="L2" s="1" t="b">
         <v>0</v>
@@ -724,11 +724,11 @@
       <c r="X2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Y2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="b">
-        <v>0</v>
+      <c r="Y2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="b">
         <v>0</v>
@@ -758,44 +758,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>646da337f77882d7c21f38bc685d9d421487758016893d6a109cb8270ee1c2df</t>
+          <t>895a39745645ca83381000f8a6dcc23ef3ae05eabf2236e48919c21058acb69f</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0x5cb45b1d85539505DbB9613450596DB9d68a358c</t>
+          <t>0xe5393396Ef5F7AE014E830AC92B98406978d098C</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>16831</v>
+        <v>88444</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3627891630245e-05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.1738798297692e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>4.468189579067673</v>
+        <v>0.06215536063132594</v>
       </c>
       <c r="L3" s="1" t="b">
         <v>0</v>
@@ -836,11 +836,11 @@
       <c r="X3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Y3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="b">
-        <v>0</v>
+      <c r="Y3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="b">
         <v>0</v>
@@ -870,44 +870,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>068ef617231ff3f690ff23383870295c23e72ebf4c5200e79320f4098a633e08</t>
+          <t>087e9ffcab84cbb5cb96432881eb5beff87e414110ef995295d7a74acc9e85ae</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0x1EE578A9FE4340c1C63fEAB76eE8D56d8df1b0d1</t>
+          <t>0x8ED8d1878D8D28F5D9a899A07D5363E2389178e1</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>88663</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>37088</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
       <c r="I4" t="n">
-        <v>4.9893560734461e-05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.9998689914563e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>4.143631971978037</v>
+        <v>0.06215536063132594</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
@@ -951,8 +951,8 @@
       <c r="Y4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="1" t="b">
-        <v>0</v>
+      <c r="Z4" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA4" s="1" t="b">
         <v>0</v>
@@ -982,44 +982,44 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>383e65456d573c4b7352549babe00b20095186a93e8629e598cfc2f63b1ad0c0</t>
+          <t>f8b36062f52930da5aa7650bc691fd167105b31463e0fa6f1402577da8bd91da</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0x316225D035b0F44Cbec37fE61863e266400eCfC4</t>
+          <t>0x1ebD28d5239926801Cd6629f5db7d54636bA3Cd8</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>37134</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
       <c r="I5" t="n">
-        <v>5.8557369870241e-05</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.0883149230118e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>4.116850615383884</v>
+        <v>0.06215536063132594</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
@@ -1063,8 +1063,8 @@
       <c r="Y5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z5" s="1" t="b">
-        <v>0</v>
+      <c r="Z5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA5" s="1" t="b">
         <v>0</v>
@@ -1094,44 +1094,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5f8f5631d77b59b2b7265221393500c4581a18397659288ca3a15e668ce5e83e</t>
+          <t>97bef6609c2d16e253d4c676a20e08945f9189ce5326d6e1798b4d8fb8c473df</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0xEc259B7B6c5080E8705CF730B137328cBA066F7e</t>
+          <t>0xD8391598A57ACEDB3452808cE56D2097b2C214Db</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>37134</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
       <c r="I6" t="n">
-        <v>6.1620246712089e-05</v>
+        <v>6.374047941609999e-07</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>5.53286519007e-07</v>
+        <v>1.862077869853e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>3.686020091138758</v>
+        <v>0.148184329218734</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>0</v>
@@ -1175,8 +1175,8 @@
       <c r="Y6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z6" s="1" t="b">
-        <v>0</v>
+      <c r="Z6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="1" t="b">
         <v>0</v>
@@ -1206,44 +1206,44 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>c28d144308cb07066e54475588b6e98c1f52a12f7b2eb1803c81a95f6cd48703</t>
+          <t>52a8c96bca5df121d6b1c353a9691388e27a7fc01520a16f2825e06afe6554bf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0x8109cfa04779E705700B7ebBC876aEa9aC0d9f3d</t>
+          <t>0x5531d57b9a2019BC844215Dfb67df81a0534e1ec</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>88538</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>36958</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
       <c r="I7" t="n">
-        <v>6.1697647903561e-05</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.537746519605e-06</v>
+        <v>9.79483177692e-07</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>4.223261593771819</v>
+        <v>0.1202250003039738</v>
       </c>
       <c r="L7" s="1" t="b">
         <v>0</v>
@@ -1287,8 +1287,8 @@
       <c r="Y7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z7" s="1" t="b">
-        <v>0</v>
+      <c r="Z7" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA7" s="1" t="b">
         <v>0</v>
@@ -1318,44 +1318,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1fc10dde0643e4026662f140aae4ba09ff8a26eec142cdd2bb24743a7d4366b7</t>
+          <t>830eac8a73731e2a44c9ae21ad678ea456d89f50d4883ff66064ed32934c94fe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0x26fcC65ae8ec4530cA8EA59DB01B93536c6126BF</t>
+          <t>0x6941B69C6f83f17F516e13F54353a56f8B09201A</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>16894</v>
+        <v>88532</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.7017041572608e-05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.5318262997766e-05</v>
+        <v>9.89785747795e-07</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>5.474190866759193</v>
+        <v>0.1208357984751003</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -1396,11 +1396,11 @@
       <c r="X8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Y8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1" t="b">
-        <v>0</v>
+      <c r="Y8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA8" s="1" t="b">
         <v>0</v>
@@ -1430,44 +1430,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9d7d9fe9ff950eb57e0fc775a9924e029e27e349ada714e42a467f106714f2a6</t>
+          <t>1fbbf4ae1a75111ec62e028ca7fc03d029cad20ca6df227c17f789fc6dd91d1f</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0x5d6b5C2fbBFf14F1147F1743aDa626434C1b8B95</t>
+          <t>0xB104797d030b2C62F147755347eF3c6118a486D1</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>88628</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>37030</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
       <c r="I9" t="n">
-        <v>4.5419778907421e-05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.3146114860228e-05</v>
+        <v>5.2794884676e-08</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>3.472137577908839</v>
+        <v>0.06528535816422727</v>
       </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
@@ -1511,8 +1511,8 @@
       <c r="Y9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z9" s="1" t="b">
-        <v>0</v>
+      <c r="Z9" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA9" s="1" t="b">
         <v>0</v>
@@ -1542,44 +1542,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>b420155b7e79d2fb8987f12f37b8d25745d4209858e969b19e02677e4593175e</t>
+          <t>1fc10dde0643e4026662f140aae4ba09ff8a26eec142cdd2bb24743a7d4366b7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0xf3663d877128e4abcEb009764188D368766ee78e</t>
+          <t>0x26fcC65ae8ec4530cA8EA59DB01B93536c6126BF</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>31</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>37030</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
       <c r="I10" t="n">
-        <v>4.4231132070532e-05</v>
+        <v>1.032608614378e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1675799652826e-05</v>
+        <v>2.235573047986e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>3.314498354151002</v>
+        <v>0.1937574180349121</v>
       </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
@@ -1623,8 +1623,8 @@
       <c r="Y10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z10" s="1" t="b">
-        <v>0</v>
+      <c r="Z10" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="b">
         <v>0</v>
@@ -1654,44 +1654,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>e751890f0d6d1c635951c1b9acd0e29d661c025b218a8f86d5a314479496fae3</t>
+          <t>76176188f72e957a1d54bd9508b9e4d2387eef8918335053f7d6bf7d58d88d1c</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0xA0EB6936b02B3Af5c6D9E4993125939bDd4eAed0</t>
+          <t>0x51c4f2d0247Db52f02842F2A7a1eAFbcFe3fE4D1</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>88531</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>37067</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
       <c r="I11" t="n">
-        <v>7.7553974391659e-05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.0152465034485e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>5.199763967818373</v>
+        <v>0.06215536063132594</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
@@ -1735,8 +1735,8 @@
       <c r="Y11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z11" s="1" t="b">
-        <v>0</v>
+      <c r="Z11" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA11" s="1" t="b">
         <v>0</v>
@@ -1766,44 +1766,44 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>c9ba3f7c0cc3d066dd68700e186d5823bdc8dad233503ef426fde62b257062fb</t>
+          <t>d95e522eb42d3dd4213255ef2188ef9a5421fb7606f86685219810998fd09514</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0x0eb98f2c209024E81D077d102B86a211eE9660c8</t>
+          <t>0x7A83a1F3e2609eE02727B731A552697b77155BeB</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>31</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>37020</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
       <c r="I12" t="n">
-        <v>6.6319919120903e-05</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8.696444967576001e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>4.447420161349566</v>
+        <v>0.06215536063132594</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
@@ -1847,8 +1847,8 @@
       <c r="Y12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z12" s="1" t="b">
-        <v>0</v>
+      <c r="Z12" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA12" s="1" t="b">
         <v>0</v>
@@ -1878,44 +1878,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>696893c5e16a363a5fb7d9751300f0aa0cee1093f9b3065e2ef1ab689e468208</t>
+          <t>4db027f373ce89c9a1b187ed22f40411f7b6aa6cad065e46c41adf71f0c00825</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0x0220c66B94c775D5D18aA25E357d9470365930e1</t>
+          <t>0x29623F93d58170deee418012CC15C4cD0a5420aD</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>88520</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>37254</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
       <c r="I13" t="n">
-        <v>4.9315253686051e-05</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8.729972674690001e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>3.441269290022891</v>
+        <v>0.06215536063132594</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>0</v>
@@ -1959,8 +1959,8 @@
       <c r="Y13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z13" s="1" t="b">
-        <v>0</v>
+      <c r="Z13" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA13" s="1" t="b">
         <v>0</v>
@@ -1990,44 +1990,44 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3e1670c34362364b575d6f2f35f3ffc38cdc16921609ba71d465c65bb75dad59</t>
+          <t>e50c2bca38dcbbdd11557f053d6ff7a328d4e3f67c3d057d922cc34324487a0b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0xA42060c1B7DbEd4E52D92EEEB43efa59A4a4829E</t>
+          <t>0xB36025C870A70146799C47BA0031087aa7Fb068b</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>31</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>88481</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>37063</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
       <c r="I14" t="n">
-        <v>4.637929094066e-05</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.525506342651e-06</v>
+        <v>1.89033709615e-07</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1.048398620776e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>2.958655811738376</v>
+        <v>0.07336241313956082</v>
       </c>
       <c r="L14" s="1" t="b">
         <v>0</v>
@@ -2071,8 +2071,8 @@
       <c r="Y14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z14" s="1" t="b">
-        <v>0</v>
+      <c r="Z14" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA14" s="1" t="b">
         <v>0</v>
@@ -2102,44 +2102,44 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1abb16baab41867aa6f9c2f977370be390f0475359c26e6c9713ab9888a6ed13</t>
+          <t>b52c32cbbf2d26f5f871a15094016a24c0bb157ca9166d2235fe0132c1b3f2f0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0xE17954158D629e9c5AfBe3B955cCb73F9E578C6c</t>
+          <t>0x4E20E71652a8D850949CDcD44b114BBe47de3D46</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>37254</v>
+        <v>88650</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.266491047161e-05</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1582639519899e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.808980248796602</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L15" s="1" t="b">
         <v>0</v>
@@ -2183,8 +2183,8 @@
       <c r="Y15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z15" s="1" t="b">
-        <v>0</v>
+      <c r="Z15" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="b">
         <v>0</v>
@@ -2214,44 +2214,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ceb2dded780522a5c3065341c9577bab9e7fbf6eb694ec7de4370f0baf3ed03b</t>
+          <t>f9f8432d0bbd247cc95742a721663bb8917c97e5cd9f227139bbcf7f1bc3d20e</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0xFFEbb64F561Db8A860564B8565d0fa43d6b15111</t>
+          <t>0xD205B492BcD768A291bD167e7e794729643958db</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>37258</v>
+        <v>88628</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1136501431427e-05</v>
+        <v>2.2111093372e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3093335065292e-05</v>
+        <v>1.5475831300708e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.215070086544483</v>
+        <v>0.9188110127754269</v>
       </c>
       <c r="L16" s="1" t="b">
         <v>0</v>
@@ -2295,8 +2295,8 @@
       <c r="Y16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z16" s="1" t="b">
-        <v>0</v>
+      <c r="Z16" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA16" s="1" t="b">
         <v>0</v>
@@ -2326,44 +2326,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08ef19003af1e14f1ecefe6108627259ba0de9be9899efdcdf981707e5e3f9ae</t>
+          <t>653a01c90a2d80a673efa518130ae791b47ddf83e2c2a5e5adf92455c8fe13b1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0x1F5CCe6EF2Be8eb880b3f93FA9c6078c243e47BF</t>
+          <t>0x19c68425482BF3CC91b5c2CFc3861BCF772E7dbc</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>31</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>88516</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>37136</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
       <c r="I17" t="n">
-        <v>6.5793652981729e-05</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.7242430538462e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>4.922877247578044</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L17" s="1" t="b">
         <v>0</v>
@@ -2407,8 +2407,8 @@
       <c r="Y17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z17" s="1" t="b">
-        <v>0</v>
+      <c r="Z17" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA17" s="1" t="b">
         <v>0</v>
@@ -2438,44 +2438,44 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ba4de691b9d6fdcd286313581deb25b47a36fce30ddd5f95fa29c4160020e824</t>
+          <t>42bfb0d8da5e548f9e4c9527beb6a2b4bd6567465e8e87bbe42a8f55bf3e0f18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0x7eE47c3F95da9F7CccbE1f0de09d4CF7744E1b5a</t>
+          <t>0x06ee0BE75bb63d08cfd57C888161769f100508a3</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>31</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>88503</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>37345</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
       <c r="I18" t="n">
-        <v>4.2319784556268e-05</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1282322260821e-05</v>
+        <v>1.162418210396e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.177854504757939</v>
+        <v>0.6891512602153725</v>
       </c>
       <c r="L18" s="1" t="b">
         <v>0</v>
@@ -2519,8 +2519,8 @@
       <c r="Y18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z18" s="1" t="b">
-        <v>0</v>
+      <c r="Z18" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA18" s="1" t="b">
         <v>0</v>
@@ -2550,44 +2550,44 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>e82d58023110dfc88055efe9aad589b0fa584ae5dca19f46c723b8f5ab2a2025</t>
+          <t>9d7d9fe9ff950eb57e0fc775a9924e029e27e349ada714e42a467f106714f2a6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0xE11275c330DC5F3C7c85e65D63fa576e8513F85e</t>
+          <t>0x5d6b5C2fbBFf14F1147F1743aDa626434C1b8B95</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>37287</v>
+        <v>88650</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4515422488867e-05</v>
+        <v>3.927629442848e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1288356884377e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.901242863922144</v>
+        <v>0.8790708391486866</v>
       </c>
       <c r="L19" s="1" t="b">
         <v>0</v>
@@ -2631,8 +2631,8 @@
       <c r="Y19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z19" s="1" t="b">
-        <v>0</v>
+      <c r="Z19" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA19" s="1" t="b">
         <v>0</v>
@@ -2662,44 +2662,44 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>28fd9b267106e4b3b3e154d1e07e8aaa8e948ef3ae5c462b5ef43e5accd831e8</t>
+          <t>a2068945976dce8addbaacffb218f0c4527db8adb9e5ffaa9750a3a76c46f5c9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0x9BD1a741cD4da52Ca2432756a44e172605DB5AD7</t>
+          <t>0xDf14E426487a656300dF4930464a636b589919b7</t>
         </is>
       </c>
       <c r="C20" t="n">
+        <v>31</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>37284</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
       <c r="I20" t="n">
-        <v>5.3908901092778e-05</v>
+        <v>1.042597672299e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>6.515917413456e-06</v>
+        <v>1.9251212523095e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.582345789960589</v>
+        <v>1.203138831244129</v>
       </c>
       <c r="L20" s="1" t="b">
         <v>0</v>
@@ -2743,8 +2743,8 @@
       <c r="Y20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z20" s="1" t="b">
-        <v>0</v>
+      <c r="Z20" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA20" s="1" t="b">
         <v>0</v>
@@ -2774,44 +2774,44 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2348be77ab4c54fd4abe3828524878bf80e23ced6b7eb7d478d3235735162d4e</t>
+          <t>08ef19003af1e14f1ecefe6108627259ba0de9be9899efdcdf981707e5e3f9ae</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0xAAc7a119A5A7AdAe55b682aa995bF803F3ac6441</t>
+          <t>0x1F5CCe6EF2Be8eb880b3f93FA9c6078c243e47BF</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>31</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
         <v>8</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>37345</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
       <c r="I21" t="n">
-        <v>5.572357404735e-05</v>
+        <v>9.985762468969999e-07</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9948236240201e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>4.486278944707749</v>
+        <v>0.7054189913735356</v>
       </c>
       <c r="L21" s="1" t="b">
         <v>0</v>
@@ -2855,8 +2855,8 @@
       <c r="Y21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z21" s="1" t="b">
-        <v>0</v>
+      <c r="Z21" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA21" s="1" t="b">
         <v>0</v>
@@ -2886,44 +2886,44 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7a925db85bca5fb1cd01acd4a9d87cd195acc71a5fe7141bf2dcc3c308397466</t>
+          <t>3552cf4d1b5be72442cc5c071524a800a27c992fa4467419f25128969b246a79</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0x70E37d6561622BE4eDE6EFA0F058aC2C865fab1C</t>
+          <t>0x0E9Aa169D2655190F22BFBaEd9B06329Af79c19A</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>31</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>88500</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>37137</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
       <c r="I22" t="n">
-        <v>5.8494784132056e-05</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>1.705936309617e-06</v>
+        <v>9.829285744740001e-07</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.09e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.569059912105025</v>
+        <v>0.7044913034662655</v>
       </c>
       <c r="L22" s="1" t="b">
         <v>0</v>
@@ -2967,8 +2967,8 @@
       <c r="Y22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z22" s="1" t="b">
-        <v>0</v>
+      <c r="Z22" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA22" s="1" t="b">
         <v>0</v>
@@ -2998,44 +2998,44 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1f757a066ba100c5d57a8c5131bcfdb9f28de9b12a658e8c8d5fe5a9a9b5b65c</t>
+          <t>ded1fc3571e1428e8c2273e569eb2fe3ba803e676183a32faf546f310ac5ec8f</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0xd2207360deDE97Be9aDaCbd0eD227C14a286E8De</t>
+          <t>0x1C3bD8f913c839BF131bD1400Dbb2108dBE33c68</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>31</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>88542</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>37403</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
       <c r="I23" t="n">
-        <v>4.6263775820812e-05</v>
+        <v>1.305201245201e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>7.15616554311e-06</v>
+        <v>1.6213329189624e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.167054643701479</v>
+        <v>1.038603595359035</v>
       </c>
       <c r="L23" s="1" t="b">
         <v>0</v>
@@ -3079,8 +3079,8 @@
       <c r="Y23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z23" s="1" t="b">
-        <v>0</v>
+      <c r="Z23" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA23" s="1" t="b">
         <v>0</v>
@@ -3110,44 +3110,44 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16d1386a42cc4c081675f4408eac1722fc65868f662cff1169f1965ef4f09d1e</t>
+          <t>36a18a8209bba7c3b94b84315c8f10910b52df7bf712d561d30d604b869d9a5e</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0x397aC005B80D0DC114894D970A373956e80d7215</t>
+          <t>0xc499f8281De09F796bC8b0b214691E1Aa0014Bc1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>37316</v>
+        <v>88474</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1209009852393e-05</v>
+        <v>1.057313554426e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1478930527453e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.71651723335955</v>
+        <v>0.7089012913876999</v>
       </c>
       <c r="L24" s="1" t="b">
         <v>0</v>
@@ -3191,8 +3191,8 @@
       <c r="Y24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z24" s="1" t="b">
-        <v>0</v>
+      <c r="Z24" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA24" s="1" t="b">
         <v>0</v>
@@ -3222,44 +3222,44 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>aff86da946703afd026561653785c4df1d0459cc5d0bca1e5f646daa651278fa</t>
+          <t>0ea30105b32376cd9b799a2629fd9aabc32483cbc9138a8bfd341b38e2ef744f</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0xb74C7978079a0DbC5Dc8404ce4CFa7a69368770f</t>
+          <t>0xaf31203B484c3357c06e69F6dd9E867292160FC6</t>
         </is>
       </c>
       <c r="C25" t="n">
+        <v>31</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>88542</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>37329</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
       <c r="I25" t="n">
-        <v>5.3002844718598e-05</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1222487289069e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.807663033406546</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L25" s="1" t="b">
         <v>0</v>
@@ -3303,8 +3303,8 @@
       <c r="Y25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z25" s="1" t="b">
-        <v>0</v>
+      <c r="Z25" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA25" s="1" t="b">
         <v>0</v>
@@ -3334,44 +3334,44 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>218d2e94c333e495182098ed6b9fd392867caf794de64f575c81f0c6856c7c76</t>
+          <t>44ecbd807341e3642427ea9eed246600df7a7a49ce35527e16254032b42629b9</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0x2E905AE59f0Be88aC4235B827bA53527e48F6A30</t>
+          <t>0xd695E7fC2A375983899cbcB90F0d66f84fA73d67</t>
         </is>
       </c>
       <c r="C26" t="n">
+        <v>31</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>88489</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
         <v>8</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>37319</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
       <c r="I26" t="n">
-        <v>5.5710146431386e-05</v>
+        <v>1.285010834658e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>4.418202801569e-06</v>
+        <v>2.2312423186703e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.56476931262497</v>
+        <v>1.398997473390408</v>
       </c>
       <c r="L26" s="1" t="b">
         <v>0</v>
@@ -3415,8 +3415,8 @@
       <c r="Y26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z26" s="1" t="b">
-        <v>0</v>
+      <c r="Z26" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA26" s="1" t="b">
         <v>0</v>
@@ -3446,44 +3446,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>33f0d8bea18b7f03217747b5506de072d17ab3716dcd9616ad3b2e4bf8a2f1f2</t>
+          <t>d60fb5eff097e44ce0a9f4f0ce40487f2966507d3c01351e757e90052dbc04c6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0x0CdB20DF6908036FAd044DD1dBEEAC4622021C15</t>
+          <t>0x81a3602023a52b1dA4B717B039f13eDCaAf5BEC7</t>
         </is>
       </c>
       <c r="C27" t="n">
+        <v>31</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>88481</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
         <v>8</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>37319</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
       <c r="I27" t="n">
-        <v>3.1435230686881e-05</v>
+        <v>1.939400829431e-06</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2085551676608e-05</v>
+        <v>4.5032978142401e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>4.358753103201809</v>
+        <v>2.784804459724032</v>
       </c>
       <c r="L27" s="1" t="b">
         <v>0</v>
@@ -3527,8 +3527,8 @@
       <c r="Y27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z27" s="1" t="b">
-        <v>0</v>
+      <c r="Z27" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA27" s="1" t="b">
         <v>0</v>
@@ -3558,44 +3558,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>f9a3966a73d83b1b89c9ebf309a525ab07934ae03f918610475d058e30ce83d6</t>
+          <t>602f97909dba431971e29f2066bbfc4c2a9cf99c506e5868c1c57fcbdb3bd3d4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0x5Ca5aC3B26375Bc6ae881710738a15e7efBf2610</t>
+          <t>0xB5FcBfbDbF17A936B2b4046b504f95A118837549</t>
         </is>
       </c>
       <c r="C28" t="n">
+        <v>29</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>88458</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
         <v>8</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>37319</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
       <c r="I28" t="n">
-        <v>4.5526074136405e-05</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5.43019777275e-06</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.020993536406163</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L28" s="1" t="b">
         <v>0</v>
@@ -3639,8 +3639,8 @@
       <c r="Y28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z28" s="1" t="b">
-        <v>0</v>
+      <c r="Z28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA28" s="1" t="b">
         <v>0</v>
@@ -3670,44 +3670,44 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3843b1e1f1765243978022750b554213b4c4bfe87a7e616b8a883c763b8057e4</t>
+          <t>d3064f65ac925d381c9fea0fd385ca44ddcc75906397fa1df21425e7e0cabaf5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0xB0d7A1800F122d596F07EFA6a0cB89a38E175c87</t>
+          <t>0x4B850403389DFB5B55e59FC657D054f2b63B9E99</t>
         </is>
       </c>
       <c r="C29" t="n">
+        <v>29</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>88438</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>37326</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
       <c r="I29" t="n">
-        <v>5.8070833620419e-05</v>
+        <v>1.002231874828e-06</v>
       </c>
       <c r="J29" t="n">
-        <v>1.3050097017775e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>4.216475493815969</v>
+        <v>0.7056357189310528</v>
       </c>
       <c r="L29" s="1" t="b">
         <v>0</v>
@@ -3751,8 +3751,8 @@
       <c r="Y29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z29" s="1" t="b">
-        <v>0</v>
+      <c r="Z29" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA29" s="1" t="b">
         <v>0</v>
@@ -3782,44 +3782,44 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>80f1afc6e2d90d826701a069d5186004b7cc19e3144d9f2049c21257047ead65</t>
+          <t>653c3846239e29f933a70d8568fc3e2d0ad4be90d34cffaac24986c5be61acbe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0x20f46436fEfBbdA837640d2E09569D4d8A15C16D</t>
+          <t>0xCad6C0Deaf49252A3E0085E651aA7a3C54a30C45</t>
         </is>
       </c>
       <c r="C30" t="n">
+        <v>31</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>88569</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
         <v>8</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>36968</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
       <c r="I30" t="n">
-        <v>3.6749689307952e-05</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.861705991858999e-06</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>2.763403181744595</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L30" s="1" t="b">
         <v>0</v>
@@ -3863,8 +3863,8 @@
       <c r="Y30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z30" s="1" t="b">
-        <v>0</v>
+      <c r="Z30" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA30" s="1" t="b">
         <v>0</v>
@@ -3894,44 +3894,44 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5beaadc088524d40ae981bca77c46f50d0b3b67bcf56761cb238e0df5017ea97</t>
+          <t>0fd99b31e5681737e5ca522fc4ba6c36a57b01486dabdb94134e4a5664143874</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0x2aa40f1c916e5B4f6478B09195559Bda0C1aBF15</t>
+          <t>0xC81A5De32399Ce2ED144fE3a0a2E802a5F34B365</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>88438</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
         <v>8</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>37378</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
       <c r="I31" t="n">
-        <v>3.4814010667344e-05</v>
+        <v>9.973928138020001e-07</v>
       </c>
       <c r="J31" t="n">
-        <v>8.932082553431e-06</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>2.593530882686867</v>
+        <v>0.7053488303590654</v>
       </c>
       <c r="L31" s="1" t="b">
         <v>0</v>
@@ -3975,8 +3975,8 @@
       <c r="Y31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z31" s="1" t="b">
-        <v>0</v>
+      <c r="Z31" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA31" s="1" t="b">
         <v>0</v>
@@ -4006,44 +4006,44 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7f8ad8d33f2ed9b238fd689f1b934fb8f8d7e98efeb590889cb2672e00285e03</t>
+          <t>a88caab96721215616f375f57d2371b3d00693a797510137fa4b79315031b205</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0x02c806AA66655b5D2C1A7A1978128768d75e45E5</t>
+          <t>0x6b636f2cFb52830A4FBD45dBBA1dbf5A6BBeEF53</t>
         </is>
       </c>
       <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>88474</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
         <v>8</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>37223</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
       <c r="I32" t="n">
-        <v>6.8301747954005e-05</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.1572856074848e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K32" t="n">
-        <v>4.735445774454579</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L32" s="1" t="b">
         <v>0</v>
@@ -4087,8 +4087,8 @@
       <c r="Y32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z32" s="1" t="b">
-        <v>0</v>
+      <c r="Z32" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA32" s="1" t="b">
         <v>0</v>
@@ -4118,44 +4118,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04025f9d9df29c562ace2594b4f00b8e5d114556984f524028d0e743a8d55cfd</t>
+          <t>ad96a8f5381ae04424ec00ec5034cdbb1693305778a8ed611508fb5d0fe073cf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0xb7E9b6FE47Ca518903e514Aa8Ba9722E4410F5B1</t>
+          <t>0x0d50DA43983cb0e064e2e59ad615F29Ff2D337aF</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>29</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>88438</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
         <v>8</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>37320</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
       <c r="I33" t="n">
-        <v>5.1180307854231e-05</v>
+        <v>1.117821494391e-06</v>
       </c>
       <c r="J33" t="n">
-        <v>2.0180815915869e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>4.230715583834149</v>
+        <v>0.7124885651164649</v>
       </c>
       <c r="L33" s="1" t="b">
         <v>0</v>
@@ -4199,8 +4199,8 @@
       <c r="Y33" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z33" s="1" t="b">
-        <v>0</v>
+      <c r="Z33" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA33" s="1" t="b">
         <v>0</v>
@@ -4230,44 +4230,44 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>176cd11ba0b755e0c46d2548b092ae6f1f4d55ab51a2a44e34b5f8bbcdad5eae</t>
+          <t>434c695665cbc7afe96c48553a2e35955d9ea519a9b856f4e2a036da58d08802</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0x4A2BA6EEEA39921D0B4caF13194585d66922dFb8</t>
+          <t>0x847Badccb89e65BE1c976BA08ee13960E78129f0</t>
         </is>
       </c>
       <c r="C34" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>88439</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
         <v>8</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>37320</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
       <c r="I34" t="n">
-        <v>3.3743507345951e-05</v>
+        <v>1.021757700541e-06</v>
       </c>
       <c r="J34" t="n">
-        <v>1.858082433858e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.102100328249105</v>
+        <v>0.7067933270342738</v>
       </c>
       <c r="L34" s="1" t="b">
         <v>0</v>
@@ -4311,8 +4311,8 @@
       <c r="Y34" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z34" s="1" t="b">
-        <v>0</v>
+      <c r="Z34" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA34" s="1" t="b">
         <v>0</v>
@@ -4342,44 +4342,44 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ed54af6943f2344f45419662e873d4a75e3d58e23099d731f8890f42687dbde3</t>
+          <t>05c968dc1f07ad98436cb6d53861a6b3ef2969f47b1c18300c00a0bdc709da78</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0xB8A67b3A0cdDCA3f4DeB25c706cb423450B13e7F</t>
+          <t>0x81DD6d09C6FdC1E8e64c7FBF75fe103214681Baa</t>
         </is>
       </c>
       <c r="C35" t="n">
+        <v>29</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>88546</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
         <v>8</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>37320</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
       <c r="I35" t="n">
-        <v>5.6331666118017e-05</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>1.599583604079e-06</v>
+        <v>1.016675524152e-06</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.09e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.434512071024184</v>
+        <v>0.7064920251248755</v>
       </c>
       <c r="L35" s="1" t="b">
         <v>0</v>
@@ -4423,8 +4423,8 @@
       <c r="Y35" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z35" s="1" t="b">
-        <v>0</v>
+      <c r="Z35" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA35" s="1" t="b">
         <v>0</v>
@@ -4454,44 +4454,44 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b4210504f3048ecb992a92feeff7b2a54bd4bc96f5a26662e30f1165d19bd828</t>
+          <t>a0b631b0bdeae62b4f8b1e4e2a7496553d1484b2165b18fb88b7d0cf545de2eb</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0xaaC0E155cF9f7cccEE2fB1457C3f0cAc5fE5F6BB</t>
+          <t>0x45eB9c078E134BF4c3c50aFca99aAf241A487d94</t>
         </is>
       </c>
       <c r="C36" t="n">
+        <v>29</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>88570</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
         <v>8</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>37356</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
       <c r="I36" t="n">
-        <v>4.7729850204464e-05</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.0642208145808e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.460645851354226</v>
+        <v>0.6462174000000001</v>
       </c>
       <c r="L36" s="1" t="b">
         <v>0</v>
@@ -4535,8 +4535,8 @@
       <c r="Y36" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z36" s="1" t="b">
-        <v>0</v>
+      <c r="Z36" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA36" s="1" t="b">
         <v>0</v>
@@ -4566,44 +4566,44 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9a0bebd3f5838f41e0bd58ca5d189fe36e2f137f5cb236ea228c64a89c3bb426</t>
+          <t>e1e606cac38c58ba2ca922deb52b13eb1d2fa71611892e7634ba7d683197bdb7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0x5acB61E7709C149DB9d72E1591aDE96386Da135F</t>
+          <t>0x0E13d55354f411E0B30CfdaFC000F99453217D90</t>
         </is>
       </c>
       <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>88628</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
         <v>8</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>37169</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
       <c r="I37" t="n">
-        <v>6.140781942624201e-05</v>
+        <v>9.611113413560001e-07</v>
       </c>
       <c r="J37" t="n">
-        <v>1.0247220497574e-05</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>4.248140696923356</v>
+        <v>0.7031978469836319</v>
       </c>
       <c r="L37" s="1" t="b">
         <v>0</v>
@@ -4647,8 +4647,8 @@
       <c r="Y37" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z37" s="1" t="b">
-        <v>0</v>
+      <c r="Z37" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA37" s="1" t="b">
         <v>0</v>
@@ -4678,44 +4678,44 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>a5ac2f798f791fe8a3e99207aead286789a6c908444ca57ccbaa8cb962eb6f59</t>
+          <t>b420155b7e79d2fb8987f12f37b8d25745d4209858e969b19e02677e4593175e</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0x8a93E3182C6f0DF108B5d87B3589D7D325D5B31F</t>
+          <t>0xf3663d877128e4abcEb009764188D368766ee78e</t>
         </is>
       </c>
       <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>88531</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
         <v>8</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37319</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
       <c r="I38" t="n">
-        <v>5.170812924139e-05</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>1.927406405819e-06</v>
+        <v>1.139827437893e-06</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.09e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>3.179836366380433</v>
+        <v>0.7137932094829244</v>
       </c>
       <c r="L38" s="1" t="b">
         <v>0</v>
@@ -4759,8 +4759,8 @@
       <c r="Y38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z38" s="1" t="b">
-        <v>0</v>
+      <c r="Z38" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA38" s="1" t="b">
         <v>0</v>
@@ -4790,44 +4790,44 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05331a5387370fbe67288fc21ee2709b8be167a313ffd48ff7fe2f11ffad612c</t>
+          <t>5a6e20e18772d80e5b6825ca5dd57fe9cb827231758d1da453ad16ddfe79ea1c</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0x3CAA5B845DF7ADC9df7A3Fb25a903C8742De3aE4</t>
+          <t>0x2DBf0d1a107a2Ea4d10c3Cf13C13A996f927f4EB</t>
         </is>
       </c>
       <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>88628</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
         <v>8</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>37316</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
       <c r="I39" t="n">
-        <v>3.9982733543446e-05</v>
+        <v>1.04851312974e-06</v>
       </c>
       <c r="J39" t="n">
-        <v>9.811553154385999e-06</v>
+        <v>1.09e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.952104081167668</v>
+        <v>0.7083795494097657</v>
       </c>
       <c r="L39" s="1" t="b">
         <v>0</v>
@@ -4871,8 +4871,8 @@
       <c r="Y39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z39" s="1" t="b">
-        <v>0</v>
+      <c r="Z39" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA39" s="1" t="b">
         <v>0</v>
@@ -4902,44 +4902,44 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>841a6c5f7dd9af025beaddb81ab70dd2320efa3514f22b8213c68a113977d946</t>
+          <t>3e1670c34362364b575d6f2f35f3ffc38cdc16921609ba71d465c65bb75dad59</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0x21c9d0abA7af33d8808BBbe696842F6960279AeE</t>
+          <t>0xA42060c1B7DbEd4E52D92EEEB43efa59A4a4829E</t>
         </is>
       </c>
       <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>88521</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
         <v>8</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>37319</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
       <c r="I40" t="n">
-        <v>4.4865294754564e-05</v>
+        <v>7.3555096949e-07</v>
       </c>
       <c r="J40" t="n">
-        <v>8.594706854796e-06</v>
+        <v>1e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.169429655412517</v>
+        <v>0.6364678747771841</v>
       </c>
       <c r="L40" s="1" t="b">
         <v>0</v>
@@ -4983,8 +4983,8 @@
       <c r="Y40" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z40" s="1" t="b">
-        <v>0</v>
+      <c r="Z40" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA40" s="1" t="b">
         <v>0</v>
@@ -5014,44 +5014,44 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>a4b3627df3393fa3983e2b4ff0fd7aef63d3f02ed111b3bbd2cf3042b95e16de</t>
+          <t>c9ba3f7c0cc3d066dd68700e186d5823bdc8dad233503ef426fde62b257062fb</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0x7f790dE1E16e384669d48Ef6210f526D247b6134</t>
+          <t>0x0eb98f2c209024E81D077d102B86a211eE9660c8</t>
         </is>
       </c>
       <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>88444</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
         <v>8</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>37114</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
       <c r="I41" t="n">
-        <v>5.5868863521526e-05</v>
+        <v>4.879873990311e-06</v>
       </c>
       <c r="J41" t="n">
-        <v>1.2842002915848e-05</v>
+        <v>7.6e-06</v>
       </c>
       <c r="K41" t="n">
-        <v>4.073592427606155</v>
+        <v>0.7398818093895779</v>
       </c>
       <c r="L41" s="1" t="b">
         <v>0</v>
@@ -5095,8 +5095,8 @@
       <c r="Y41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z41" s="1" t="b">
-        <v>0</v>
+      <c r="Z41" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA41" s="1" t="b">
         <v>0</v>
@@ -5126,44 +5126,44 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>a34a03d0acbbfea27efdddab9e6bbeb857db6893bd3eba8791b76d596c6e6f92</t>
+          <t>8461bcbeae3e266f103a7e12bccad8f927a4578aff040804542c5834efe641f7</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0x7E2dFD8278f66D61124E1fa11F55f5f8b5Aa7B05</t>
+          <t>0x1a895462D67209BF0d2c67D60773f19D58dEfddb</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>37352</v>
+        <v>88487</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>5.8459258030005e-05</v>
+        <v>1.031518449296e-06</v>
       </c>
       <c r="J42" t="n">
-        <v>6.852012282095e-06</v>
+        <v>1.0589003339156e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>3.872043971723161</v>
+        <v>0.6889342547501652</v>
       </c>
       <c r="L42" s="1" t="b">
         <v>0</v>
@@ -5207,8 +5207,8 @@
       <c r="Y42" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z42" s="1" t="b">
-        <v>0</v>
+      <c r="Z42" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA42" s="1" t="b">
         <v>0</v>
@@ -5238,44 +5238,44 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>e927c8ae83be9f923c7479ca47ccb1a42c686fb4d0b662a3d0fd20c609e189e2</t>
+          <t>1f757a066ba100c5d57a8c5131bcfdb9f28de9b12a658e8c8d5fe5a9a9b5b65c</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0xa493d3FF067AcF2e9283E52DdF69ca24e02E8d30</t>
+          <t>0xd2207360deDE97Be9aDaCbd0eD227C14a286E8De</t>
         </is>
       </c>
       <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>88481</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
         <v>8</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>37126</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
       <c r="I43" t="n">
-        <v>6.300216079077299e-05</v>
+        <v>7.710658623503e-06</v>
       </c>
       <c r="J43" t="n">
-        <v>1.055263489623e-05</v>
+        <v>8.348220508478e-06</v>
       </c>
       <c r="K43" t="n">
-        <v>4.36076961709966</v>
+        <v>0.9520667082186256</v>
       </c>
       <c r="L43" s="1" t="b">
         <v>0</v>
@@ -5319,8 +5319,8 @@
       <c r="Y43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z43" s="1" t="b">
-        <v>0</v>
+      <c r="Z43" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA43" s="1" t="b">
         <v>0</v>
@@ -5350,44 +5350,44 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>97bf9d23ef3e9507530c1fffecb326897f357a4aca2750afbc55b4d344603056</t>
+          <t>16d1386a42cc4c081675f4408eac1722fc65868f662cff1169f1965ef4f09d1e</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0xEBb8e9f14Ee01d9CA770b3539d0d8b5f2EBaf966</t>
+          <t>0x397aC005B80D0DC114894D970A373956e80d7215</t>
         </is>
       </c>
       <c r="C44" t="n">
+        <v>29</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>88459</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
         <v>8</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>37292</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
       <c r="I44" t="n">
-        <v>5.9879435307835e-05</v>
+        <v>2.822988093208e-06</v>
       </c>
       <c r="J44" t="n">
-        <v>8.726588440693e-06</v>
+        <v>8.129130158686e-06</v>
       </c>
       <c r="K44" t="n">
-        <v>4.067376723955231</v>
+        <v>0.6493072826817877</v>
       </c>
       <c r="L44" s="1" t="b">
         <v>0</v>
@@ -5431,8 +5431,8 @@
       <c r="Y44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z44" s="1" t="b">
-        <v>0</v>
+      <c r="Z44" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA44" s="1" t="b">
         <v>0</v>
@@ -5462,44 +5462,44 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ad96a8f5381ae04424ec00ec5034cdbb1693305778a8ed611508fb5d0fe073cf</t>
+          <t>a4b3627df3393fa3983e2b4ff0fd7aef63d3f02ed111b3bbd2cf3042b95e16de</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0x0d50DA43983cb0e064e2e59ad615F29Ff2D337aF</t>
+          <t>0x7f790dE1E16e384669d48Ef6210f526D247b6134</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>37337</v>
+        <v>88494</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4220174808485e-05</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>6.95754656566e-07</v>
+        <v>1.353144681472e-06</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9.6e-06</v>
       </c>
       <c r="K45" t="n">
-        <v>2.070025794265014</v>
+        <v>0.649368135585749</v>
       </c>
       <c r="L45" s="1" t="b">
         <v>0</v>
@@ -5543,8 +5543,8 @@
       <c r="Y45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z45" s="1" t="b">
-        <v>0</v>
+      <c r="Z45" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA45" s="1" t="b">
         <v>0</v>
@@ -5574,44 +5574,44 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4512e7e6553c74924de32fa59f418375d0c548181dafe9eabde37601e61d115b</t>
+          <t>aff86da946703afd026561653785c4df1d0459cc5d0bca1e5f646daa651278fa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0x94A9EaEC42e0B8478B10CF94B5eD1b9493d9c37f</t>
+          <t>0xb74C7978079a0DbC5Dc8404ce4CFa7a69368770f</t>
         </is>
       </c>
       <c r="C46" t="n">
+        <v>31</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>88573</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
         <v>8</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>37247</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
-      </c>
       <c r="I46" t="n">
-        <v>6.85381024488e-05</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8.748480401101999e-06</v>
+        <v>1.06e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>4.58201235083929</v>
+        <v>0.6284316</v>
       </c>
       <c r="L46" s="1" t="b">
         <v>0</v>
@@ -5655,8 +5655,8 @@
       <c r="Y46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z46" s="1" t="b">
-        <v>0</v>
+      <c r="Z46" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA46" s="1" t="b">
         <v>0</v>
@@ -5686,44 +5686,44 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>d7b1ccce6e7bd7c626568521c8745f0f530198f305c108fadc45cc21fc5de4b3</t>
+          <t>218d2e94c333e495182098ed6b9fd392867caf794de64f575c81f0c6856c7c76</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0xC104Aa8A28d391ee243E7A39Efb12c7C78cDB349</t>
+          <t>0x2E905AE59f0Be88aC4235B827bA53527e48F6A30</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>37320</v>
+        <v>88481</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I47" t="n">
-        <v>5.0676099672015e-05</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>1.917052191338e-06</v>
+        <v>2.025610903171e-06</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.0377460413887e-05</v>
       </c>
       <c r="K47" t="n">
-        <v>3.118037601370746</v>
+        <v>0.7353284861031006</v>
       </c>
       <c r="L47" s="1" t="b">
         <v>0</v>
@@ -5767,8 +5767,8 @@
       <c r="Y47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z47" s="1" t="b">
-        <v>0</v>
+      <c r="Z47" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA47" s="1" t="b">
         <v>0</v>
@@ -5798,44 +5798,44 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>d3064f65ac925d381c9fea0fd385ca44ddcc75906397fa1df21425e7e0cabaf5</t>
+          <t>6fbb97e2c3cb4f1d0c458aa7cf510e56d54d3496bae00c4a59062daabbbab790</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0x4B850403389DFB5B55e59FC657D054f2b63B9E99</t>
+          <t>0x6606ae4A6545aE2c7806358Ff9e629D201E4681B</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>37147</v>
+        <v>88540</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>5.6506414731189e-05</v>
+        <v>1.03703460291e-06</v>
       </c>
       <c r="J48" t="n">
-        <v>5.561647352975e-06</v>
+        <v>9.6e-06</v>
       </c>
       <c r="K48" t="n">
-        <v>3.679767128721747</v>
+        <v>0.6306272334681222</v>
       </c>
       <c r="L48" s="1" t="b">
         <v>0</v>
@@ -5879,8 +5879,8 @@
       <c r="Y48" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z48" s="1" t="b">
-        <v>0</v>
+      <c r="Z48" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA48" s="1" t="b">
         <v>0</v>
@@ -5910,44 +5910,44 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>f6bfa7a3bff596e3f2c50024ffa7c9b19455f35f5c492f3d2756b398afbb4d03</t>
+          <t>33f0d8bea18b7f03217747b5506de072d17ab3716dcd9616ad3b2e4bf8a2f1f2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0x2A20fC92928365F8d4228509f80E0F57A5ba92B1</t>
+          <t>0x0CdB20DF6908036FAd044DD1dBEEAC4622021C15</t>
         </is>
       </c>
       <c r="C49" t="n">
+        <v>31</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>88449</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
         <v>8</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>37328</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
       <c r="I49" t="n">
-        <v>6.5083815597348e-05</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>1.2564627085e-06</v>
+        <v>1.468166562447e-06</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.0394718197126e-05</v>
       </c>
       <c r="K49" t="n">
-        <v>3.933049739640504</v>
+        <v>0.7033029858560449</v>
       </c>
       <c r="L49" s="1" t="b">
         <v>0</v>
@@ -5991,8 +5991,8 @@
       <c r="Y49" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z49" s="1" t="b">
-        <v>0</v>
+      <c r="Z49" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA49" s="1" t="b">
         <v>0</v>
@@ -6022,44 +6022,44 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>36a18a8209bba7c3b94b84315c8f10910b52df7bf712d561d30d604b869d9a5e</t>
+          <t>f9a3966a73d83b1b89c9ebf309a525ab07934ae03f918610475d058e30ce83d6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0xc499f8281De09F796bC8b0b214691E1Aa0014Bc1</t>
+          <t>0x5Ca5aC3B26375Bc6ae881710738a15e7efBf2610</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>37147</v>
+        <v>88535</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
-        <v>6.6870289012121e-05</v>
+        <v>3.791321221993e-06</v>
       </c>
       <c r="J50" t="n">
-        <v>7.272520667209e-06</v>
+        <v>7.847502294813999e-06</v>
       </c>
       <c r="K50" t="n">
-        <v>4.395630614648758</v>
+        <v>0.6900192910174198</v>
       </c>
       <c r="L50" s="1" t="b">
         <v>0</v>
@@ -6103,8 +6103,8 @@
       <c r="Y50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z50" s="1" t="b">
-        <v>0</v>
+      <c r="Z50" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA50" s="1" t="b">
         <v>0</v>
@@ -6134,44 +6134,44 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>786eed19196bdf14646654604202c2faaca667a255d80bdf3d33ebb41b432131</t>
+          <t>8f143ea6fe04e43f00e8e710004c5588870c625446162eb53eb873292165ff84</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0x93082a078413d8d08B0e8D527dFc920e5A772560</t>
+          <t>0xe8f7c333B099De6C48244228F8E432C242650F43</t>
         </is>
       </c>
       <c r="C51" t="n">
+        <v>31</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>88550</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="n">
         <v>8</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>37389</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
       <c r="I51" t="n">
-        <v>5.4340128666656e-05</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.0258312028182e-05</v>
+        <v>1.06e-05</v>
       </c>
       <c r="K51" t="n">
-        <v>3.829783155034166</v>
+        <v>0.6284316</v>
       </c>
       <c r="L51" s="1" t="b">
         <v>0</v>
@@ -6215,8 +6215,8 @@
       <c r="Y51" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z51" s="1" t="b">
-        <v>0</v>
+      <c r="Z51" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA51" s="1" t="b">
         <v>0</v>
@@ -6246,44 +6246,44 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>663f1c3240c2752996f0319cccdc3a2730f842a1bb18fbe14ca68ddf5a08a495</t>
+          <t>eb8e0456270f74bb096ef5ac4b222582bc4733669fd91c2bada4479f10f92e59</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0xB3a730b7B89a9ccF64D38f6bCdF9301285858970</t>
+          <t>0xB103B29D7EEE15CfC4552e06Ef69963f629A6645</t>
         </is>
       </c>
       <c r="C52" t="n">
+        <v>31</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>88486</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
         <v>8</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>37209</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
       <c r="I52" t="n">
-        <v>1.0028699536506e-05</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6.2781503378426e-05</v>
+        <v>1.008888804358e-06</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>4.316625690014659</v>
+        <v>0.05981298165516839</v>
       </c>
       <c r="L52" s="1" t="b">
         <v>0</v>
@@ -6327,8 +6327,8 @@
       <c r="Y52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z52" s="1" t="b">
-        <v>0</v>
+      <c r="Z52" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA52" s="1" t="b">
         <v>0</v>
@@ -6358,44 +6358,44 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>434c695665cbc7afe96c48553a2e35955d9ea519a9b856f4e2a036da58d08802</t>
+          <t>8df0746480d089b0fa7eeafc127fee667ac9aaf7873ed93c547ba47172703e79</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0x847Badccb89e65BE1c976BA08ee13960E78129f0</t>
+          <t>0x1b780749c68191429eb724EC2eEEe2e1D458AB01</t>
         </is>
       </c>
       <c r="C53" t="n">
+        <v>29</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>88509</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
         <v>8</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>37180</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
       <c r="I53" t="n">
-        <v>4.8118829910817e-05</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.938437627804e-05</v>
+        <v>1.097394248001e-06</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>4.001995082112576</v>
+        <v>0.06506011538698729</v>
       </c>
       <c r="L53" s="1" t="b">
         <v>0</v>
@@ -6439,8 +6439,8 @@
       <c r="Y53" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z53" s="1" t="b">
-        <v>0</v>
+      <c r="Z53" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA53" s="1" t="b">
         <v>0</v>
@@ -6470,44 +6470,44 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>f589dcb9a2f9f4be63cd7962c9306db709bc8804280636e7006198b997b48911</t>
+          <t>7f03789630844cddee0db9e087004d4566ccb466734576bb9e67117703a85380</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0x792F20FF428E9c630D19b4d84263f19d33E309F3</t>
+          <t>0x23c4dE01ed19F259Cbd5652074962C5210F186D1</t>
         </is>
       </c>
       <c r="C54" t="n">
+        <v>29</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>88498</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="n">
         <v>8</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>37354</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3</v>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
       <c r="I54" t="n">
-        <v>5.9950495798815e-05</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6.483287674344e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>3.938593286989704</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1" t="b">
         <v>0</v>
@@ -6551,8 +6551,8 @@
       <c r="Y54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z54" s="1" t="b">
-        <v>0</v>
+      <c r="Z54" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA54" s="1" t="b">
         <v>0</v>
@@ -6582,44 +6582,44 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>afe041878beb726927e7ae9373d9b7da9b2435dbb26044124cbf61e04bd7f880</t>
+          <t>552c93d80898aa67f47c004d3543cffd6c7cadbfc0a7d102c47b6d3cbf11c9de</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0x1265b5d98CeBE666C7Ccc1fD5dAe4fAD190152C4</t>
+          <t>0x3034f662A52f16135Fb9AD48a9Df22e0531aE38b</t>
         </is>
       </c>
       <c r="C55" t="n">
+        <v>31</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>88547</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
         <v>8</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>37184</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3</v>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
       <c r="I55" t="n">
-        <v>6.747220200308699e-05</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.7100814656459e-05</v>
+        <v>3.64237889778e-07</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>5.013995865677844</v>
+        <v>0.02159420753337851</v>
       </c>
       <c r="L55" s="1" t="b">
         <v>0</v>
@@ -6663,8 +6663,8 @@
       <c r="Y55" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z55" s="1" t="b">
-        <v>0</v>
+      <c r="Z55" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA55" s="1" t="b">
         <v>0</v>
@@ -6694,44 +6694,44 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>01cdc1e1b3f17d6bff855b16e017ae06a30a9796abfd6e89eb4cd98d2333f37d</t>
+          <t>23e452e55d8d5b6a64d40188fc0b4797a8ccd6822aedd8eed9d8341b1b3280a3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0xCDDDFa7895328A82f07F2B002eCd03DDfbFab8Bf</t>
+          <t>0x268C35Ef0bcA904902c76938Eb7816d6B42302e4</t>
         </is>
       </c>
       <c r="C56" t="n">
+        <v>31</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>88533</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
         <v>8</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>37367</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
       <c r="I56" t="n">
-        <v>6.1070586614035e-05</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6.231035809235e-06</v>
+        <v>9.555494856429999e-07</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>3.990043986985985</v>
+        <v>0.0566507068058309</v>
       </c>
       <c r="L56" s="1" t="b">
         <v>0</v>
@@ -6775,8 +6775,8 @@
       <c r="Y56" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z56" s="1" t="b">
-        <v>0</v>
+      <c r="Z56" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA56" s="1" t="b">
         <v>0</v>
@@ -6806,44 +6806,44 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>360f0a955fc514b62c31c1f33f4c71a60339c0e6b61882172b19e862b200b888</t>
+          <t>703b291dcb069f30fac278ed060b0d39ee8c0bc2d0cbe70fb8c6df2bf35ea941</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0x5Ec15488a238FFDBe998CF108440d6E7Ffc8CfFC</t>
+          <t>0x8DefF287c0e24C7D0B15254123c364EAa0316010</t>
         </is>
       </c>
       <c r="C57" t="n">
+        <v>31</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>88516</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
         <v>8</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>37393</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
       <c r="I57" t="n">
-        <v>5.73488285123e-05</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.080293781483e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>3.760458944309219</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1" t="b">
         <v>0</v>
@@ -6887,8 +6887,8 @@
       <c r="Y57" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z57" s="1" t="b">
-        <v>0</v>
+      <c r="Z57" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA57" s="1" t="b">
         <v>0</v>
@@ -6918,44 +6918,44 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>602f97909dba431971e29f2066bbfc4c2a9cf99c506e5868c1c57fcbdb3bd3d4</t>
+          <t>51f47cc6b5b3736a556880d94a48a650b5b5182e87a8421a199d966aae458d23</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0xB5FcBfbDbF17A936B2b4046b504f95A118837549</t>
+          <t>0x27D27B9943e45a4c6F5b69cCBaE86c05ccE5B51b</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>37142</v>
+        <v>88517</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>6.9994420994871e-05</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.963888728908e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>4.384692350283962</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1" t="b">
         <v>0</v>
@@ -6999,8 +6999,8 @@
       <c r="Y58" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z58" s="1" t="b">
-        <v>0</v>
+      <c r="Z58" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA58" s="1" t="b">
         <v>0</v>
@@ -7030,44 +7030,44 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>97bef6609c2d16e253d4c676a20e08945f9189ce5326d6e1798b4d8fb8c473df</t>
+          <t>a275e367666cf324b8c43c41bcd7c4f28cabacc7324e5f6dd97dab0b283f31b5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0xD8391598A57ACEDB3452808cE56D2097b2C214Db</t>
+          <t>0x85089eD36383DE94e40a54C384A79EB8C44b1b09</t>
         </is>
       </c>
       <c r="C59" t="n">
+        <v>31</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>88481</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
         <v>8</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>37141</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
       <c r="I59" t="n">
-        <v>8.111995101409e-05</v>
+        <v>1.020146471465e-06</v>
       </c>
       <c r="J59" t="n">
-        <v>9.905206473136e-06</v>
+        <v>1.1670926345657e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>5.396517486787681</v>
+        <v>0.7524029430358949</v>
       </c>
       <c r="L59" s="1" t="b">
         <v>0</v>
@@ -7111,8 +7111,8 @@
       <c r="Y59" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z59" s="1" t="b">
-        <v>0</v>
+      <c r="Z59" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA59" s="1" t="b">
         <v>0</v>
@@ -7142,44 +7142,44 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>830eac8a73731e2a44c9ae21ad678ea456d89f50d4883ff66064ed32934c94fe</t>
+          <t>c28f38569a604f732ccd139f2b2cd0450a923eddfb9b8bacffc66d85ac1493e7</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0x6941B69C6f83f17F516e13F54353a56f8B09201A</t>
+          <t>0x633Ce486DbBEd1Cfa699c27a70A022E43daaE73C</t>
         </is>
       </c>
       <c r="C60" t="n">
+        <v>29</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>88505</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
         <v>8</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>37273</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
       <c r="I60" t="n">
-        <v>6.6955676378431e-05</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7.852962611430999e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4.435104971152959</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1" t="b">
         <v>0</v>
@@ -7223,8 +7223,8 @@
       <c r="Y60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z60" s="1" t="b">
-        <v>0</v>
+      <c r="Z60" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA60" s="1" t="b">
         <v>0</v>
@@ -7254,44 +7254,44 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6fbb97e2c3cb4f1d0c458aa7cf510e56d54d3496bae00c4a59062daabbbab790</t>
+          <t>663f1c3240c2752996f0319cccdc3a2730f842a1bb18fbe14ca68ddf5a08a495</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0x6606ae4A6545aE2c7806358Ff9e629D201E4681B</t>
+          <t>0xB3a730b7B89a9ccF64D38f6bCdF9301285858970</t>
         </is>
       </c>
       <c r="C61" t="n">
+        <v>31</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>88392</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
         <v>8</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>37300</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
-      </c>
       <c r="I61" t="n">
-        <v>5.8912980943168e-05</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5.702815755714e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>3.830812123089918</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1" t="b">
         <v>0</v>
@@ -7335,8 +7335,8 @@
       <c r="Y61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z61" s="1" t="b">
-        <v>0</v>
+      <c r="Z61" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA61" s="1" t="b">
         <v>0</v>
@@ -7366,44 +7366,44 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>433452283b778eec6c21a08673dd6d4a19f37bcb967af8f6b100ddf3713a6d86</t>
+          <t>d7b1ccce6e7bd7c626568521c8745f0f530198f305c108fadc45cc21fc5de4b3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0xb2E92E88447Fa2d5facc48fefCD610A890370Fbc</t>
+          <t>0xC104Aa8A28d391ee243E7A39Efb12c7C78cDB349</t>
         </is>
       </c>
       <c r="C62" t="n">
+        <v>29</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>88491</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
         <v>8</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>37106</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
       <c r="I62" t="n">
-        <v>6.7135079954617e-05</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.4723179402615e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>4.853048764252856</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1" t="b">
         <v>0</v>
@@ -7447,8 +7447,8 @@
       <c r="Y62" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z62" s="1" t="b">
-        <v>0</v>
+      <c r="Z62" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA62" s="1" t="b">
         <v>0</v>
@@ -7478,44 +7478,44 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>a0b631b0bdeae62b4f8b1e4e2a7496553d1484b2165b18fb88b7d0cf545de2eb</t>
+          <t>ba4de691b9d6fdcd286313581deb25b47a36fce30ddd5f95fa29c4160020e824</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0x45eB9c078E134BF4c3c50aFca99aAf241A487d94</t>
+          <t>0x7eE47c3F95da9F7CccbE1f0de09d4CF7744E1b5a</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>105</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>37084</v>
+        <v>88625</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>6.521109904991901e-05</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.0543813545018e-05</v>
+        <v>4.09622881902e-07</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>4.491205748103435</v>
+        <v>0.02428490217644197</v>
       </c>
       <c r="L63" s="1" t="b">
         <v>0</v>
@@ -7559,8 +7559,8 @@
       <c r="Y63" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z63" s="1" t="b">
-        <v>0</v>
+      <c r="Z63" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA63" s="1" t="b">
         <v>0</v>
@@ -7590,44 +7590,44 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8461bcbeae3e266f103a7e12bccad8f927a4578aff040804542c5834efe641f7</t>
+          <t>3843b1e1f1765243978022750b554213b4c4bfe87a7e616b8a883c763b8057e4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0x1a895462D67209BF0d2c67D60773f19D58dEfddb</t>
+          <t>0xB0d7A1800F122d596F07EFA6a0cB89a38E175c87</t>
         </is>
       </c>
       <c r="C64" t="n">
+        <v>31</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>88528</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
         <v>8</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>37307</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3</v>
-      </c>
-      <c r="H64" t="n">
-        <v>7</v>
-      </c>
       <c r="I64" t="n">
-        <v>4.5943689122468e-05</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.635065550084e-06</v>
+        <v>6.748209875187e-06</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>7.97491523465e-07</v>
       </c>
       <c r="K64" t="n">
-        <v>3.057898049516918</v>
+        <v>0.4473544531204825</v>
       </c>
       <c r="L64" s="1" t="b">
         <v>0</v>
@@ -7671,8 +7671,8 @@
       <c r="Y64" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z64" s="1" t="b">
-        <v>0</v>
+      <c r="Z64" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA64" s="1" t="b">
         <v>0</v>
@@ -7702,44 +7702,44 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>eb8e0456270f74bb096ef5ac4b222582bc4733669fd91c2bada4479f10f92e59</t>
+          <t>80f1afc6e2d90d826701a069d5186004b7cc19e3144d9f2049c21257047ead65</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0xB103B29D7EEE15CfC4552e06Ef69963f629A6645</t>
+          <t>0x20f46436fEfBbdA837640d2E09569D4d8A15C16D</t>
         </is>
       </c>
       <c r="C65" t="n">
+        <v>31</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>88507</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
         <v>8</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>37359</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
-      </c>
       <c r="I65" t="n">
-        <v>3.8400349600961e-05</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.0457844442419e-05</v>
+        <v>1.047550164716e-06</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>4.082326892055827</v>
+        <v>0.06210505906535278</v>
       </c>
       <c r="L65" s="1" t="b">
         <v>0</v>
@@ -7783,8 +7783,8 @@
       <c r="Y65" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z65" s="1" t="b">
-        <v>0</v>
+      <c r="Z65" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA65" s="1" t="b">
         <v>0</v>
@@ -7814,44 +7814,44 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8df0746480d089b0fa7eeafc127fee667ac9aaf7873ed93c547ba47172703e79</t>
+          <t>5beaadc088524d40ae981bca77c46f50d0b3b67bcf56761cb238e0df5017ea97</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0x1b780749c68191429eb724EC2eEEe2e1D458AB01</t>
+          <t>0x2aa40f1c916e5B4f6478B09195559Bda0C1aBF15</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>37339</v>
+        <v>88513</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n">
-        <v>4.5604737218243e-05</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.3780599310948e-05</v>
+        <v>9.92578334137e-07</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>3.520719061469618</v>
+        <v>0.05884599911764618</v>
       </c>
       <c r="L66" s="1" t="b">
         <v>0</v>
@@ -7895,8 +7895,8 @@
       <c r="Y66" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z66" s="1" t="b">
-        <v>0</v>
+      <c r="Z66" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA66" s="1" t="b">
         <v>0</v>
@@ -7926,44 +7926,44 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7f03789630844cddee0db9e087004d4566ccb466734576bb9e67117703a85380</t>
+          <t>7f8ad8d33f2ed9b238fd689f1b934fb8f8d7e98efeb590889cb2672e00285e03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0x23c4dE01ed19F259Cbd5652074962C5210F186D1</t>
+          <t>0x02c806AA66655b5D2C1A7A1978128768d75e45E5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>37281</v>
+        <v>88515</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I67" t="n">
-        <v>5.3100803051847e-05</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.0915762941984e-05</v>
+        <v>1.001439678843e-06</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>3.795286131510265</v>
+        <v>0.0593713527998861</v>
       </c>
       <c r="L67" s="1" t="b">
         <v>0</v>
@@ -8007,8 +8007,8 @@
       <c r="Y67" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z67" s="1" t="b">
-        <v>0</v>
+      <c r="Z67" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA67" s="1" t="b">
         <v>0</v>
@@ -8038,44 +8038,44 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>552c93d80898aa67f47c004d3543cffd6c7cadbfc0a7d102c47b6d3cbf11c9de</t>
+          <t>383e65456d573c4b7352549babe00b20095186a93e8629e598cfc2f63b1ad0c0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0x3034f662A52f16135Fb9AD48a9Df22e0531aE38b</t>
+          <t>0x316225D035b0F44Cbec37fE61863e266400eCfC4</t>
         </is>
       </c>
       <c r="C68" t="n">
+        <v>31</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>88606</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="n">
         <v>8</v>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>37339</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
-      </c>
       <c r="I68" t="n">
-        <v>6.133486793204501e-05</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.9308054765222e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>5.373856315030172</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1" t="b">
         <v>0</v>
@@ -8119,8 +8119,8 @@
       <c r="Y68" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z68" s="1" t="b">
-        <v>0</v>
+      <c r="Z68" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA68" s="1" t="b">
         <v>0</v>
@@ -8150,44 +8150,44 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>23e452e55d8d5b6a64d40188fc0b4797a8ccd6822aedd8eed9d8341b1b3280a3</t>
+          <t>04025f9d9df29c562ace2594b4f00b8e5d114556984f524028d0e743a8d55cfd</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0x268C35Ef0bcA904902c76938Eb7816d6B42302e4</t>
+          <t>0xb7E9b6FE47Ca518903e514Aa8Ba9722E4410F5B1</t>
         </is>
       </c>
       <c r="C69" t="n">
+        <v>31</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>88581</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
         <v>8</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>37339</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3</v>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
       <c r="I69" t="n">
-        <v>5.7860826086194e-05</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.9594551394163e-05</v>
+        <v>6.30084303413e-07</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>4.592019509300445</v>
+        <v>0.03735517801214312</v>
       </c>
       <c r="L69" s="1" t="b">
         <v>0</v>
@@ -8231,8 +8231,8 @@
       <c r="Y69" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z69" s="1" t="b">
-        <v>0</v>
+      <c r="Z69" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA69" s="1" t="b">
         <v>0</v>
@@ -8262,44 +8262,44 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>703b291dcb069f30fac278ed060b0d39ee8c0bc2d0cbe70fb8c6df2bf35ea941</t>
+          <t>696893c5e16a363a5fb7d9751300f0aa0cee1093f9b3065e2ef1ab689e468208</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0x8DefF287c0e24C7D0B15254123c364EAa0316010</t>
+          <t>0x0220c66B94c775D5D18aA25E357d9470365930e1</t>
         </is>
       </c>
       <c r="C70" t="n">
+        <v>31</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>88628</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="n">
         <v>8</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>37144</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7</v>
-      </c>
       <c r="I70" t="n">
-        <v>4.0819906004496e-05</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.7436304853446e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>4.046637716923949</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1" t="b">
         <v>0</v>
@@ -8343,8 +8343,8 @@
       <c r="Y70" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z70" s="1" t="b">
-        <v>0</v>
+      <c r="Z70" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA70" s="1" t="b">
         <v>0</v>
@@ -8374,44 +8374,44 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>51f47cc6b5b3736a556880d94a48a650b5b5182e87a8421a199d966aae458d23</t>
+          <t>068ef617231ff3f690ff23383870295c23e72ebf4c5200e79320f4098a633e08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x27D27B9943e45a4c6F5b69cCBaE86c05ccE5B51b</t>
+          <t>0x1EE578A9FE4340c1C63fEAB76eE8D56d8df1b0d1</t>
         </is>
       </c>
       <c r="C71" t="n">
+        <v>31</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>88605</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="n">
         <v>8</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>37339</v>
-      </c>
-      <c r="G71" t="n">
-        <v>3</v>
-      </c>
-      <c r="H71" t="n">
-        <v>7</v>
-      </c>
       <c r="I71" t="n">
-        <v>4.8108094605298e-05</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.2041362418153e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>3.566020709092316</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1" t="b">
         <v>0</v>
@@ -8455,8 +8455,8 @@
       <c r="Y71" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z71" s="1" t="b">
-        <v>0</v>
+      <c r="Z71" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA71" s="1" t="b">
         <v>0</v>
@@ -8486,44 +8486,44 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>a275e367666cf324b8c43c41bcd7c4f28cabacc7324e5f6dd97dab0b283f31b5</t>
+          <t>176cd11ba0b755e0c46d2548b092ae6f1f4d55ab51a2a44e34b5f8bbcdad5eae</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0x85089eD36383DE94e40a54C384A79EB8C44b1b09</t>
+          <t>0x4A2BA6EEEA39921D0B4caF13194585d66922dFb8</t>
         </is>
       </c>
       <c r="C72" t="n">
+        <v>31</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>88577</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
         <v>8</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>37144</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
       <c r="I72" t="n">
-        <v>3.9730984413719e-05</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8.759352716569001e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>2.874798127106254</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1" t="b">
         <v>0</v>
@@ -8567,8 +8567,8 @@
       <c r="Y72" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z72" s="1" t="b">
-        <v>0</v>
+      <c r="Z72" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA72" s="1" t="b">
         <v>0</v>
@@ -8598,44 +8598,44 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>c28f38569a604f732ccd139f2b2cd0450a923eddfb9b8bacffc66d85ac1493e7</t>
+          <t>ed54af6943f2344f45419662e873d4a75e3d58e23099d731f8890f42687dbde3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0x633Ce486DbBEd1Cfa699c27a70A022E43daaE73C</t>
+          <t>0xB8A67b3A0cdDCA3f4DeB25c706cb423450B13e7F</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>37336</v>
+        <v>88524</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I73" t="n">
-        <v>4.9966863292389e-05</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.538715168579e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>3.409275724636949</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1" t="b">
         <v>0</v>
@@ -8679,8 +8679,8 @@
       <c r="Y73" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z73" s="1" t="b">
-        <v>0</v>
+      <c r="Z73" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA73" s="1" t="b">
         <v>0</v>
@@ -8710,44 +8710,44 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>52a8c96bca5df121d6b1c353a9691388e27a7fc01520a16f2825e06afe6554bf</t>
+          <t>5f8f5631d77b59b2b7265221393500c4581a18397659288ca3a15e668ce5e83e</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x5531d57b9a2019BC844215Dfb67df81a0534e1ec</t>
+          <t>0xEc259B7B6c5080E8705CF730B137328cBA066F7e</t>
         </is>
       </c>
       <c r="C74" t="n">
+        <v>31</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>88610</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="n">
         <v>8</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>37331</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
-      </c>
       <c r="I74" t="n">
-        <v>5.9449014626305e-05</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.1583657156961e-05</v>
+        <v>1.039064096245e-06</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>4.804102979342708</v>
+        <v>0.06160195400998107</v>
       </c>
       <c r="L74" s="1" t="b">
         <v>0</v>
@@ -8791,8 +8791,8 @@
       <c r="Y74" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z74" s="1" t="b">
-        <v>0</v>
+      <c r="Z74" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA74" s="1" t="b">
         <v>0</v>
@@ -8822,44 +8822,44 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>f9f8432d0bbd247cc95742a721663bb8917c97e5cd9f227139bbcf7f1bc3d20e</t>
+          <t>b4210504f3048ecb992a92feeff7b2a54bd4bc96f5a26662e30f1165d19bd828</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0xD205B492BcD768A291bD167e7e794729643958db</t>
+          <t>0xaaC0E155cF9f7cccEE2fB1457C3f0cAc5fE5F6BB</t>
         </is>
       </c>
       <c r="C75" t="n">
+        <v>31</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>88600</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="n">
         <v>8</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
-      </c>
       <c r="I75" t="n">
-        <v>5.0907355004208e-05</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.551528319438e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>3.347221356725677</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1" t="b">
         <v>0</v>
@@ -8903,8 +8903,8 @@
       <c r="Y75" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z75" s="1" t="b">
-        <v>0</v>
+      <c r="Z75" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA75" s="1" t="b">
         <v>0</v>
@@ -8934,44 +8934,44 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>653a01c90a2d80a673efa518130ae791b47ddf83e2c2a5e5adf92455c8fe13b1</t>
+          <t>9a0bebd3f5838f41e0bd58ca5d189fe36e2f137f5cb236ea228c64a89c3bb426</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0x19c68425482BF3CC91b5c2CFc3861BCF772E7dbc</t>
+          <t>0x5acB61E7709C149DB9d72E1591aDE96386Da135F</t>
         </is>
       </c>
       <c r="C76" t="n">
+        <v>31</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>88502</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="n">
         <v>8</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3</v>
-      </c>
-      <c r="H76" t="n">
-        <v>7</v>
-      </c>
       <c r="I76" t="n">
-        <v>4.1854482954316e-05</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.8856312216275e-05</v>
+        <v>1.068211447994e-06</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>4.192160202483658</v>
+        <v>0.06332998390577228</v>
       </c>
       <c r="L76" s="1" t="b">
         <v>0</v>
@@ -9015,8 +9015,8 @@
       <c r="Y76" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z76" s="1" t="b">
-        <v>0</v>
+      <c r="Z76" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA76" s="1" t="b">
         <v>0</v>
@@ -9046,44 +9046,44 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>42bfb0d8da5e548f9e4c9527beb6a2b4bd6567465e8e87bbe42a8f55bf3e0f18</t>
+          <t>a5ac2f798f791fe8a3e99207aead286789a6c908444ca57ccbaa8cb962eb6f59</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0x06ee0BE75bb63d08cfd57C888161769f100508a3</t>
+          <t>0x8a93E3182C6f0DF108B5d87B3589D7D325D5B31F</t>
         </is>
       </c>
       <c r="C77" t="n">
+        <v>31</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>88483</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="n">
         <v>8</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
-      </c>
       <c r="I77" t="n">
-        <v>6.0783738911604e-05</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.296573597118e-06</v>
+        <v>2.061278441829e-06</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>1.77076267364e-07</v>
       </c>
       <c r="K77" t="n">
-        <v>3.917637407392093</v>
+        <v>0.1327030972892162</v>
       </c>
       <c r="L77" s="1" t="b">
         <v>0</v>
@@ -9127,8 +9127,8 @@
       <c r="Y77" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z77" s="1" t="b">
-        <v>0</v>
+      <c r="Z77" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA77" s="1" t="b">
         <v>0</v>
@@ -9158,44 +9158,44 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>a2068945976dce8addbaacffb218f0c4527db8adb9e5ffaa9750a3a76c46f5c9</t>
+          <t>05331a5387370fbe67288fc21ee2709b8be167a313ffd48ff7fe2f11ffad612c</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xDf14E426487a656300dF4930464a636b589919b7</t>
+          <t>0x3CAA5B845DF7ADC9df7A3Fb25a903C8742De3aE4</t>
         </is>
       </c>
       <c r="C78" t="n">
+        <v>31</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>88460</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="n">
         <v>8</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
-      </c>
       <c r="I78" t="n">
-        <v>2.86446458475e-05</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4.3942234727796e-05</v>
+        <v>1.676232275343e-06</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>3.7452944197e-08</v>
       </c>
       <c r="K78" t="n">
-        <v>4.303385801786999</v>
+        <v>0.1015975419256484</v>
       </c>
       <c r="L78" s="1" t="b">
         <v>0</v>
@@ -9239,8 +9239,8 @@
       <c r="Y78" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z78" s="1" t="b">
-        <v>0</v>
+      <c r="Z78" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA78" s="1" t="b">
         <v>0</v>
@@ -9270,44 +9270,44 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3552cf4d1b5be72442cc5c071524a800a27c992fa4467419f25128969b246a79</t>
+          <t>841a6c5f7dd9af025beaddb81ab70dd2320efa3514f22b8213c68a113977d946</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0x0E9Aa169D2655190F22BFBaEd9B06329Af79c19A</t>
+          <t>0x21c9d0abA7af33d8808BBbe696842F6960279AeE</t>
         </is>
       </c>
       <c r="C79" t="n">
+        <v>31</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>88608</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="n">
         <v>8</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3</v>
-      </c>
-      <c r="H79" t="n">
-        <v>7</v>
-      </c>
       <c r="I79" t="n">
-        <v>4.5804649302046e-05</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.5647899240739e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>4.236135792907551</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1" t="b">
         <v>0</v>
@@ -9351,8 +9351,8 @@
       <c r="Y79" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z79" s="1" t="b">
-        <v>0</v>
+      <c r="Z79" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA79" s="1" t="b">
         <v>0</v>
@@ -9382,44 +9382,44 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ded1fc3571e1428e8c2273e569eb2fe3ba803e676183a32faf546f310ac5ec8f</t>
+          <t>c28d144308cb07066e54475588b6e98c1f52a12f7b2eb1803c81a95f6cd48703</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0x1C3bD8f913c839BF131bD1400Dbb2108dBE33c68</t>
+          <t>0x8109cfa04779E705700B7ebBC876aEa9aC0d9f3d</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>37143</v>
+        <v>88633</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I80" t="n">
-        <v>5.4693893631719e-05</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.0046712977927e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>3.838211603459473</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1" t="b">
         <v>0</v>
@@ -9463,8 +9463,8 @@
       <c r="Y80" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z80" s="1" t="b">
-        <v>0</v>
+      <c r="Z80" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA80" s="1" t="b">
         <v>0</v>
@@ -9494,44 +9494,44 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0ea30105b32376cd9b799a2629fd9aabc32483cbc9138a8bfd341b38e2ef744f</t>
+          <t>4512e7e6553c74924de32fa59f418375d0c548181dafe9eabde37601e61d115b</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0xaf31203B484c3357c06e69F6dd9E867292160FC6</t>
+          <t>0x94A9EaEC42e0B8478B10CF94B5eD1b9493d9c37f</t>
         </is>
       </c>
       <c r="C81" t="n">
+        <v>31</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>88533</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
         <v>8</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>37339</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
-      </c>
       <c r="I81" t="n">
-        <v>5.5274878442897e-05</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.0629002615789e-05</v>
+        <v>1.026909890216e-06</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>3.907177492445258</v>
+        <v>0.06088137975134578</v>
       </c>
       <c r="L81" s="1" t="b">
         <v>0</v>
@@ -9575,8 +9575,8 @@
       <c r="Y81" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z81" s="1" t="b">
-        <v>0</v>
+      <c r="Z81" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA81" s="1" t="b">
         <v>0</v>
@@ -9606,44 +9606,44 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>44ecbd807341e3642427ea9eed246600df7a7a49ce35527e16254032b42629b9</t>
+          <t>786eed19196bdf14646654604202c2faaca667a255d80bdf3d33ebb41b432131</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0xd695E7fC2A375983899cbcB90F0d66f84fA73d67</t>
+          <t>0x93082a078413d8d08B0e8D527dFc920e5A772560</t>
         </is>
       </c>
       <c r="C82" t="n">
+        <v>31</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>88626</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
         <v>8</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
-      </c>
       <c r="I82" t="n">
-        <v>4.3190895894685e-05</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.247312673287e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>3.300097245497226</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1" t="b">
         <v>0</v>
@@ -9687,8 +9687,8 @@
       <c r="Y82" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z82" s="1" t="b">
-        <v>0</v>
+      <c r="Z82" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA82" s="1" t="b">
         <v>0</v>
@@ -9718,44 +9718,44 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>d60fb5eff097e44ce0a9f4f0ce40487f2966507d3c01351e757e90052dbc04c6</t>
+          <t>a34a03d0acbbfea27efdddab9e6bbeb857db6893bd3eba8791b76d596c6e6f92</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0x81a3602023a52b1dA4B717B039f13eDCaAf5BEC7</t>
+          <t>0x7E2dFD8278f66D61124E1fa11F55f5f8b5Aa7B05</t>
         </is>
       </c>
       <c r="C83" t="n">
+        <v>29</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>88511</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="n">
         <v>8</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7</v>
-      </c>
       <c r="I83" t="n">
-        <v>5.0166731867657e-05</v>
+        <v>0</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>1.632258882877e-06</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>3.070954965636159</v>
+        <v>0</v>
       </c>
       <c r="L83" s="1" t="b">
         <v>0</v>
@@ -9799,8 +9799,8 @@
       <c r="Y83" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z83" s="1" t="b">
-        <v>0</v>
+      <c r="Z83" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA83" s="1" t="b">
         <v>0</v>
@@ -9830,44 +9830,44 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>653c3846239e29f933a70d8568fc3e2d0ad4be90d34cffaac24986c5be61acbe</t>
+          <t>f589dcb9a2f9f4be63cd7962c9306db709bc8804280636e7006198b997b48911</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0xCad6C0Deaf49252A3E0085E651aA7a3C54a30C45</t>
+          <t>0x792F20FF428E9c630D19b4d84263f19d33E309F3</t>
         </is>
       </c>
       <c r="C84" t="n">
+        <v>31</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>88471</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
         <v>8</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7</v>
-      </c>
       <c r="I84" t="n">
-        <v>5.7022040048491e-05</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.3991277719544e-05</v>
+        <v>1.48776609949e-07</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>5.395815557195723</v>
+        <v>0.008820370097436414</v>
       </c>
       <c r="L84" s="1" t="b">
         <v>0</v>
@@ -9911,8 +9911,8 @@
       <c r="Y84" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z84" s="1" t="b">
-        <v>0</v>
+      <c r="Z84" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA84" s="1" t="b">
         <v>0</v>
@@ -9942,44 +9942,44 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0fd99b31e5681737e5ca522fc4ba6c36a57b01486dabdb94134e4a5664143874</t>
+          <t>afe041878beb726927e7ae9373d9b7da9b2435dbb26044124cbf61e04bd7f880</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0xC81A5De32399Ce2ED144fE3a0a2E802a5F34B365</t>
+          <t>0x1265b5d98CeBE666C7Ccc1fD5dAe4fAD190152C4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>37143</v>
+        <v>88487</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>3.8330657500062e-05</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.3883584886576e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>3.095573574134221</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1" t="b">
         <v>0</v>
@@ -10023,8 +10023,8 @@
       <c r="Y85" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z85" s="1" t="b">
-        <v>0</v>
+      <c r="Z85" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA85" s="1" t="b">
         <v>0</v>
@@ -10054,44 +10054,44 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>a88caab96721215616f375f57d2371b3d00693a797510137fa4b79315031b205</t>
+          <t>01cdc1e1b3f17d6bff855b16e017ae06a30a9796abfd6e89eb4cd98d2333f37d</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0x6b636f2cFb52830A4FBD45dBBA1dbf5A6BBeEF53</t>
+          <t>0xCDDDFa7895328A82f07F2B002eCd03DDfbFab8Bf</t>
         </is>
       </c>
       <c r="C86" t="n">
+        <v>31</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>88596</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="n">
         <v>8</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>37338</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3</v>
-      </c>
-      <c r="H86" t="n">
-        <v>7</v>
-      </c>
       <c r="I86" t="n">
-        <v>5.1825935420198e-05</v>
-      </c>
-      <c r="J86" t="n">
-        <v>8.584232118636e-06</v>
+        <v>5.43727470888e-07</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>3.581477192707312</v>
+        <v>0.03223542683906597</v>
       </c>
       <c r="L86" s="1" t="b">
         <v>0</v>
@@ -10135,8 +10135,8 @@
       <c r="Y86" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z86" s="1" t="b">
-        <v>0</v>
+      <c r="Z86" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA86" s="1" t="b">
         <v>0</v>
@@ -10166,20 +10166,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05c968dc1f07ad98436cb6d53861a6b3ef2969f47b1c18300c00a0bdc709da78</t>
+          <t>1abb16baab41867aa6f9c2f977370be390f0475359c26e6c9713ab9888a6ed13</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0x81DD6d09C6FdC1E8e64c7FBF75fe103214681Baa</t>
+          <t>0xE17954158D629e9c5AfBe3B955cCb73F9E578C6c</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10188,22 +10188,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>37338</v>
+        <v>88482</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>4.6936193421284e-05</v>
+        <v>1.010042991145e-06</v>
       </c>
       <c r="J87" t="n">
-        <v>3.2457722652517e-05</v>
+        <v>5.527508571353e-06</v>
       </c>
       <c r="K87" t="n">
-        <v>4.706947708351366</v>
+        <v>0.3875852819342565</v>
       </c>
       <c r="L87" s="1" t="b">
         <v>0</v>
@@ -10247,8 +10247,8 @@
       <c r="Y87" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z87" s="1" t="b">
-        <v>0</v>
+      <c r="Z87" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA87" s="1" t="b">
         <v>0</v>
@@ -10278,44 +10278,44 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>e1e606cac38c58ba2ca922deb52b13eb1d2fa71611892e7634ba7d683197bdb7</t>
+          <t>28fd9b267106e4b3b3e154d1e07e8aaa8e948ef3ae5c462b5ef43e5accd831e8</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0x0E13d55354f411E0B30CfdaFC000F99453217D90</t>
+          <t>0x9BD1a741cD4da52Ca2432756a44e172605DB5AD7</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>37143</v>
+        <v>88578</v>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I88" t="n">
-        <v>3.6755645274093e-05</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.3382531050044e-05</v>
+        <v>8.45618415232e-07</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>2.972491921552786</v>
+        <v>0.05013333336544435</v>
       </c>
       <c r="L88" s="1" t="b">
         <v>0</v>
@@ -10359,8 +10359,8 @@
       <c r="Y88" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z88" s="1" t="b">
-        <v>0</v>
+      <c r="Z88" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA88" s="1" t="b">
         <v>0</v>
@@ -10390,44 +10390,44 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5a6e20e18772d80e5b6825ca5dd57fe9cb827231758d1da453ad16ddfe79ea1c</t>
+          <t>e927c8ae83be9f923c7479ca47ccb1a42c686fb4d0b662a3d0fd20c609e189e2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x2DBf0d1a107a2Ea4d10c3Cf13C13A996f927f4EB</t>
+          <t>0xa493d3FF067AcF2e9283E52DdF69ca24e02E8d30</t>
         </is>
       </c>
       <c r="C89" t="n">
+        <v>31</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>88479</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="n">
         <v>8</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>37338</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3</v>
-      </c>
-      <c r="H89" t="n">
-        <v>7</v>
-      </c>
       <c r="I89" t="n">
-        <v>6.0192151604256e-05</v>
+        <v>1.190783741104e-06</v>
       </c>
       <c r="J89" t="n">
-        <v>7.699956032951e-06</v>
+        <v>6.039246732985e-06</v>
       </c>
       <c r="K89" t="n">
-        <v>4.025051493379454</v>
+        <v>0.4286395866868404</v>
       </c>
       <c r="L89" s="1" t="b">
         <v>0</v>
@@ -10471,8 +10471,8 @@
       <c r="Y89" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z89" s="1" t="b">
-        <v>0</v>
+      <c r="Z89" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA89" s="1" t="b">
         <v>0</v>
@@ -10502,44 +10502,44 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>895a39745645ca83381000f8a6dcc23ef3ae05eabf2236e48919c21058acb69f</t>
+          <t>2348be77ab4c54fd4abe3828524878bf80e23ced6b7eb7d478d3235735162d4e</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0xe5393396Ef5F7AE014E830AC92B98406978d098C</t>
+          <t>0xAAc7a119A5A7AdAe55b682aa995bF803F3ac6441</t>
         </is>
       </c>
       <c r="C90" t="n">
+        <v>31</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>88580</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4</v>
+      </c>
+      <c r="H90" t="n">
         <v>8</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>37367</v>
-      </c>
-      <c r="G90" t="n">
-        <v>3</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
-      </c>
       <c r="I90" t="n">
-        <v>5.4113472984121e-05</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.2065008923531e-05</v>
+        <v>3.977976797911e-06</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>4.516317478377056</v>
+        <v>0.2358383324409515</v>
       </c>
       <c r="L90" s="1" t="b">
         <v>0</v>
@@ -10583,8 +10583,8 @@
       <c r="Y90" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z90" s="1" t="b">
-        <v>0</v>
+      <c r="Z90" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA90" s="1" t="b">
         <v>0</v>
@@ -10614,44 +10614,44 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>087e9ffcab84cbb5cb96432881eb5beff87e414110ef995295d7a74acc9e85ae</t>
+          <t>ceb2dded780522a5c3065341c9577bab9e7fbf6eb694ec7de4370f0baf3ed03b</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0x8ED8d1878D8D28F5D9a899A07D5363E2389178e1</t>
+          <t>0xFFEbb64F561Db8A860564B8565d0fa43d6b15111</t>
         </is>
       </c>
       <c r="C91" t="n">
+        <v>29</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>88551</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="n">
         <v>8</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>37543</v>
-      </c>
-      <c r="G91" t="n">
-        <v>3</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
-      </c>
       <c r="I91" t="n">
-        <v>5.7688376932871e-05</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.3929348893326e-05</v>
+        <v>7.21754257949e-07</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>4.245928493331915</v>
+        <v>0.04278992293676442</v>
       </c>
       <c r="L91" s="1" t="b">
         <v>0</v>
@@ -10695,8 +10695,8 @@
       <c r="Y91" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z91" s="1" t="b">
-        <v>0</v>
+      <c r="Z91" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA91" s="1" t="b">
         <v>0</v>
@@ -10726,44 +10726,44 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1fbbf4ae1a75111ec62e028ca7fc03d029cad20ca6df227c17f789fc6dd91d1f</t>
+          <t>360f0a955fc514b62c31c1f33f4c71a60339c0e6b61882172b19e862b200b888</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0xB104797d030b2C62F147755347eF3c6118a486D1</t>
+          <t>0x5Ec15488a238FFDBe998CF108440d6E7Ffc8CfFC</t>
         </is>
       </c>
       <c r="C92" t="n">
+        <v>31</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>88516</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
         <v>8</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>37341</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3</v>
-      </c>
-      <c r="H92" t="n">
-        <v>7</v>
-      </c>
       <c r="I92" t="n">
-        <v>5.4052901029635e-05</v>
+        <v>7.783083214875e-06</v>
       </c>
       <c r="J92" t="n">
-        <v>5.484227382951e-06</v>
+        <v>3.487099033174e-06</v>
       </c>
       <c r="K92" t="n">
-        <v>3.529718195068574</v>
+        <v>0.668164024757833</v>
       </c>
       <c r="L92" s="1" t="b">
         <v>0</v>
@@ -10807,8 +10807,8 @@
       <c r="Y92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z92" s="1" t="b">
-        <v>0</v>
+      <c r="Z92" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA92" s="1" t="b">
         <v>0</v>
@@ -10838,44 +10838,44 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>d95e522eb42d3dd4213255ef2188ef9a5421fb7606f86685219810998fd09514</t>
+          <t>f6bfa7a3bff596e3f2c50024ffa7c9b19455f35f5c492f3d2756b398afbb4d03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0x7A83a1F3e2609eE02727B731A552697b77155BeB</t>
+          <t>0x2A20fC92928365F8d4228509f80E0F57A5ba92B1</t>
         </is>
       </c>
       <c r="C93" t="n">
+        <v>31</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>88537</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="n">
         <v>8</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>37143</v>
-      </c>
-      <c r="G93" t="n">
-        <v>3</v>
-      </c>
-      <c r="H93" t="n">
-        <v>7</v>
-      </c>
       <c r="I93" t="n">
-        <v>6.413791542167799e-05</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.249979101848e-05</v>
+        <v>1.808015787591e-06</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>5.770895808e-08</v>
       </c>
       <c r="K93" t="n">
-        <v>4.543543064011208</v>
+        <v>0.1106113572718509</v>
       </c>
       <c r="L93" s="1" t="b">
         <v>0</v>
@@ -10919,8 +10919,8 @@
       <c r="Y93" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z93" s="1" t="b">
-        <v>0</v>
+      <c r="Z93" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA93" s="1" t="b">
         <v>0</v>
@@ -10950,44 +10950,44 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4db027f373ce89c9a1b187ed22f40411f7b6aa6cad065e46c41adf71f0c00825</t>
+          <t>97bf9d23ef3e9507530c1fffecb326897f357a4aca2750afbc55b4d344603056</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0x29623F93d58170deee418012CC15C4cD0a5420aD</t>
+          <t>0xEBb8e9f14Ee01d9CA770b3539d0d8b5f2EBaf966</t>
         </is>
       </c>
       <c r="C94" t="n">
+        <v>31</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>88602</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="n">
         <v>8</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>37257</v>
-      </c>
-      <c r="G94" t="n">
-        <v>3</v>
-      </c>
-      <c r="H94" t="n">
-        <v>7</v>
-      </c>
       <c r="I94" t="n">
-        <v>5.5515300793906e-05</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.3330457905359e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>4.081589650244625</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1" t="b">
         <v>0</v>
@@ -11031,8 +11031,8 @@
       <c r="Y94" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z94" s="1" t="b">
-        <v>0</v>
+      <c r="Z94" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA94" s="1" t="b">
         <v>0</v>
@@ -11062,44 +11062,44 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>e50c2bca38dcbbdd11557f053d6ff7a328d4e3f67c3d057d922cc34324487a0b</t>
+          <t>e751890f0d6d1c635951c1b9acd0e29d661c025b218a8f86d5a314479496fae3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0xB36025C870A70146799C47BA0031087aa7Fb068b</t>
+          <t>0xA0EB6936b02B3Af5c6D9E4993125939bDd4eAed0</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>37465</v>
+        <v>88671</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I95" t="n">
-        <v>5.208931612616e-05</v>
-      </c>
-      <c r="J95" t="n">
-        <v>7.199616013823e-06</v>
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>3.515003630851032</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1" t="b">
         <v>0</v>
@@ -11143,8 +11143,8 @@
       <c r="Y95" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z95" s="1" t="b">
-        <v>0</v>
+      <c r="Z95" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA95" s="1" t="b">
         <v>0</v>
@@ -11174,44 +11174,44 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>b52c32cbbf2d26f5f871a15094016a24c0bb157ca9166d2235fe0132c1b3f2f0</t>
+          <t>7a925db85bca5fb1cd01acd4a9d87cd195acc71a5fe7141bf2dcc3c308397466</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0x4E20E71652a8D850949CDcD44b114BBe47de3D46</t>
+          <t>0x70E37d6561622BE4eDE6EFA0F058aC2C865fab1C</t>
         </is>
       </c>
       <c r="C96" t="n">
+        <v>31</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>88549</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
         <v>8</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>37367</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7</v>
-      </c>
       <c r="I96" t="n">
-        <v>4.8264024102902e-05</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3.0133078592576e-05</v>
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>4.647850630404109</v>
+        <v>0</v>
       </c>
       <c r="L96" s="1" t="b">
         <v>0</v>
@@ -11255,8 +11255,8 @@
       <c r="Y96" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z96" s="1" t="b">
-        <v>0</v>
+      <c r="Z96" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA96" s="1" t="b">
         <v>0</v>
@@ -11286,44 +11286,44 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8f143ea6fe04e43f00e8e710004c5588870c625446162eb53eb873292165ff84</t>
+          <t>e82d58023110dfc88055efe9aad589b0fa584ae5dca19f46c723b8f5ab2a2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0xe8f7c333B099De6C48244228F8E432C242650F43</t>
+          <t>0xE11275c330DC5F3C7c85e65D63fa576e8513F85e</t>
         </is>
       </c>
       <c r="C97" t="n">
+        <v>29</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>88528</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
         <v>8</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>37176</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7</v>
-      </c>
       <c r="I97" t="n">
-        <v>4.8647437179962e-05</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.2129401967644e-05</v>
+        <v>1.948601740528e-06</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>3.603215685704969</v>
+        <v>0.115524802788943</v>
       </c>
       <c r="L97" s="1" t="b">
         <v>0</v>
@@ -11367,8 +11367,8 @@
       <c r="Y97" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z97" s="1" t="b">
-        <v>0</v>
+      <c r="Z97" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA97" s="1" t="b">
         <v>0</v>
@@ -11398,44 +11398,44 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>f8b36062f52930da5aa7650bc691fd167105b31463e0fa6f1402577da8bd91da</t>
+          <t>433452283b778eec6c21a08673dd6d4a19f37bcb967af8f6b100ddf3713a6d86</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0x1ebD28d5239926801Cd6629f5db7d54636bA3Cd8</t>
+          <t>0xb2E92E88447Fa2d5facc48fefCD610A890370Fbc</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>37335</v>
+        <v>88483</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>4.5535497707054e-05</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2.0091404246574e-05</v>
+        <v>9.856358560100001e-07</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>3.89075650922279</v>
+        <v>0.05843440735940886</v>
       </c>
       <c r="L98" s="1" t="b">
         <v>0</v>
@@ -11479,8 +11479,8 @@
       <c r="Y98" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z98" s="1" t="b">
-        <v>0</v>
+      <c r="Z98" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA98" s="1" t="b">
         <v>0</v>
@@ -11510,44 +11510,44 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>76176188f72e957a1d54bd9508b9e4d2387eef8918335053f7d6bf7d58d88d1c</t>
+          <t>646da337f77882d7c21f38bc685d9d421487758016893d6a109cb8270ee1c2df</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0x51c4f2d0247Db52f02842F2A7a1eAFbcFe3fE4D1</t>
+          <t>0x5cb45b1d85539505DbB9613450596DB9d68a358c</t>
         </is>
       </c>
       <c r="C99" t="n">
+        <v>24</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>88298</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="n">
         <v>8</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>37550</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3</v>
-      </c>
-      <c r="H99" t="n">
-        <v>7</v>
-      </c>
       <c r="I99" t="n">
-        <v>3.268427825598e-05</v>
+        <v>1.836217991439e-06</v>
       </c>
       <c r="J99" t="n">
-        <v>4.2069380607479e-05</v>
+        <v>4.289181072327e-06</v>
       </c>
       <c r="K99" t="n">
-        <v>4.43184541937903</v>
+        <v>0.3631504088944311</v>
       </c>
       <c r="L99" s="1" t="b">
         <v>0</v>
@@ -11591,8 +11591,8 @@
       <c r="Y99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z99" s="1" t="b">
-        <v>0</v>
+      <c r="Z99" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA99" s="1" t="b">
         <v>0</v>
@@ -11622,44 +11622,44 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>e4a9ab2d2a5e925576f484cb54a13da000e6379f1cb6bd593080e54728f86d55</t>
+          <t>584a72d4c9518f1ecd983421b6013f097afc36d37373685c771f65f1f31f15f3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0x3947d145c955727151D43E381e2521F73B5E4706</t>
+          <t>0x8433729FB2ba158D6c9603AB63D600347d43f87B</t>
         </is>
       </c>
       <c r="C100" t="n">
+        <v>24</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>88383</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="n">
         <v>8</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>37958</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
-      </c>
       <c r="I100" t="n">
-        <v>2.3628167326636e-05</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.4551899840042e-05</v>
+        <v>2.927942572642e-06</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2.263543462043672</v>
+        <v>0.1735860033616536</v>
       </c>
       <c r="L100" s="1" t="b">
         <v>0</v>
@@ -11703,8 +11703,8 @@
       <c r="Y100" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Z100" s="1" t="b">
-        <v>0</v>
+      <c r="Z100" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AA100" s="1" t="b">
         <v>0</v>

--- a/chek/bitlayer_results.xlsx
+++ b/chek/bitlayer_results.xlsx
@@ -659,22 +659,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>266</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>88650</v>
+        <v>90235</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -733,11 +733,11 @@
       <c r="AA2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AB2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="b">
-        <v>0</v>
+      <c r="AB2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="b">
         <v>0</v>
@@ -771,16 +771,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>88444</v>
+        <v>88663</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -991,11 +991,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>88474</v>
+        <v>88618</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -1551,11 +1551,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>88474</v>
+        <v>88546</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>88474</v>
+        <v>88478</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>88481</v>
+        <v>88486</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -2227,16 +2227,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>88628</v>
+        <v>88480</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>88650</v>
+        <v>88696</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>88474</v>
+        <v>88500</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -3007,11 +3007,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>88542</v>
+        <v>88502</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3128,11 +3128,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>88474</v>
+        <v>88514</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>88481</v>
+        <v>88492</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3912,11 +3912,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>88438</v>
+        <v>88519</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -4019,16 +4019,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>88474</v>
+        <v>88554</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -4127,20 +4127,20 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>88438</v>
+        <v>88546</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -4351,20 +4351,20 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>88546</v>
+        <v>88663</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4575,20 +4575,20 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>88628</v>
+        <v>88530</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -4691,16 +4691,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>88531</v>
+        <v>88657</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -4803,16 +4803,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>88628</v>
+        <v>88545</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -5027,16 +5027,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>88444</v>
+        <v>88663</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -10623,7 +10623,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -11295,7 +11295,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
